--- a/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f502_thong_ke_hv_dang_hoc.xlsx
+++ b/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f502_thong_ke_hv_dang_hoc.xlsx
@@ -48,13 +48,13 @@
     <t>Đơn vị TK</t>
   </si>
   <si>
-    <t>Từ tháng  &lt;tu_ngay&gt;  Đến tháng &lt;den_ngay&gt;</t>
-  </si>
-  <si>
     <t>THỐNG KÊ HỌC VIÊN ĐANG HỌC</t>
   </si>
   <si>
     <t>Giá trị TK</t>
+  </si>
+  <si>
+    <t>Ngày  &lt;ngay&gt;</t>
   </si>
 </sst>
 </file>
@@ -188,6 +188,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -199,9 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,66 +516,66 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
+      <c r="A2" s="10" t="s">
+        <v>9</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>11</v>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f502_thong_ke_hv_dang_hoc.xlsx
+++ b/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f502_thong_ke_hv_dang_hoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>STT</t>
   </si>
@@ -30,31 +30,16 @@
     <t>Tên TT</t>
   </si>
   <si>
-    <t>Loại TK</t>
-  </si>
-  <si>
-    <t>Tên Thống kê</t>
-  </si>
-  <si>
-    <t>Loại thời gian</t>
-  </si>
-  <si>
-    <t>Từ ngày</t>
-  </si>
-  <si>
-    <t>Đến ngày</t>
-  </si>
-  <si>
-    <t>Đơn vị TK</t>
-  </si>
-  <si>
     <t>THỐNG KÊ HỌC VIÊN ĐANG HỌC</t>
   </si>
   <si>
-    <t>Giá trị TK</t>
+    <t>Ngày  &lt;tu_ngay&gt;</t>
   </si>
   <si>
-    <t>Ngày  &lt;ngay&gt;</t>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số lượng </t>
   </si>
 </sst>
 </file>
@@ -170,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,6 +187,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,19 +480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J348"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
@@ -509,44 +500,44 @@
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -557,85 +548,70 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1638,8 +1614,8 @@
   <mergeCells count="4">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
